--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama1-Itgb1.xlsx
@@ -534,10 +534,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.09358433333333334</v>
+        <v>0.01135533333333333</v>
       </c>
       <c r="H2">
-        <v>0.280753</v>
+        <v>0.034066</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>10.529490781392</v>
+        <v>0.6931477871171112</v>
       </c>
       <c r="R2">
-        <v>94.76541703252801</v>
+        <v>6.238330084054001</v>
       </c>
       <c r="S2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="T2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09358433333333334</v>
+        <v>0.01135533333333333</v>
       </c>
       <c r="H3">
-        <v>0.280753</v>
+        <v>0.034066</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>9.949368424299333</v>
+        <v>1.207236199585333</v>
       </c>
       <c r="R3">
-        <v>89.54431581869402</v>
+        <v>10.865125796268</v>
       </c>
       <c r="S3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="T3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.09358433333333334</v>
+        <v>0.01135533333333333</v>
       </c>
       <c r="H4">
-        <v>0.280753</v>
+        <v>0.034066</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>11.66918543659978</v>
+        <v>1.491391417449778</v>
       </c>
       <c r="R4">
-        <v>105.022668929398</v>
+        <v>13.422522757048</v>
       </c>
       <c r="S4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="T4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
     </row>
   </sheetData>
